--- a/excel/test_write.xlsx
+++ b/excel/test_write.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>姓名</t>
   </si>
@@ -27,13 +27,7 @@
     <t>狗子</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>蛋子</t>
-  </si>
-  <si>
-    <t>28</t>
   </si>
 </sst>
 </file>
@@ -427,16 +421,16 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="28.3464567" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
